--- a/Assets/StreamingAssets/Excels/Building_Properties.xlsx
+++ b/Assets/StreamingAssets/Excels/Building_Properties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24021691\Desktop\ZombieRush\Assets\Resources\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24021691\Desktop\ZombieRush\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0E3DDB-C766-43A9-AC95-CE5C97AAACA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCABF6A-6D78-4056-81D8-FBB16FE0AAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5652" yWindow="1272" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Assets/StreamingAssets/Excels/Building_Properties.xlsx
+++ b/Assets/StreamingAssets/Excels/Building_Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24021691\Desktop\ZombieRush\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCABF6A-6D78-4056-81D8-FBB16FE0AAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9821846-4A01-4081-97C3-F8642E27A788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5652" yWindow="1272" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Assets/StreamingAssets/Excels/Building_Properties.xlsx
+++ b/Assets/StreamingAssets/Excels/Building_Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24021691\Desktop\ZombieRush\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9821846-4A01-4081-97C3-F8642E27A788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B476DD-A4A5-4C2E-8ADA-92CEE9DF7F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5652" yWindow="1272" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Sprites/Buildings/B0</t>
+  </si>
+  <si>
+    <t>Prefabs/Qiu</t>
+  </si>
+  <si>
+    <t>Sprites/Buildings/Qiu</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -433,10 +439,10 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -453,12 +459,32 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/Excels/Building_Properties.xlsx
+++ b/Assets/StreamingAssets/Excels/Building_Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24021691\Desktop\ZombieRush\Assets\StreamingAssets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2020m\Desktop\ZombieRush\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B476DD-A4A5-4C2E-8ADA-92CEE9DF7F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D405361-8BFC-40F9-B3F1-FA5E56590994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5652" yWindow="1272" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1010" yWindow="2010" windowWidth="19200" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,17 +71,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -111,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,23 +392,23 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="19.4140625" customWidth="1"/>
+    <col min="7" max="7" width="28.08203125" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,16 +439,16 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,10 +465,10 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -485,7 +485,7 @@
         <v>60</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
